--- a/Stocks/BERGEPAINT.xlsx
+++ b/Stocks/BERGEPAINT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>258.40000000000003</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>249.6631677222432</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>248.21875653567932</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>46.03175490178181</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>2.3000000000000114</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>4.3000000000000114</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.53488372093023384</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>250.99690508823085</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-7.8660458602541894E-3</v>
       </c>
       <c r="Y67">
         <v>0.51745160091778553</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>244.95</v>
+      </c>
+      <c r="D83">
+        <v>246.45</v>
+      </c>
+      <c r="E83">
+        <v>241.2</v>
+      </c>
+      <c r="F83">
+        <v>244.5</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>244.04999999999998</v>
+      </c>
+      <c r="H83">
+        <v>241.87881057486555</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>245.42536847281661</v>
+      </c>
+      <c r="K83">
+        <v>237.44558943410451</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>56.704949021957262</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>3.3000000000000114</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>5.25</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.62857142857143078</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>243.37047427639672</v>
+      </c>
+      <c r="W83">
+        <v>245.73188262906305</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-2.3614083526663308</v>
+      </c>
+      <c r="Y83">
+        <v>-2.1368719108764194</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>244.45</v>
+      </c>
+      <c r="D84">
+        <v>245.35</v>
+      </c>
+      <c r="E84">
+        <v>240.6</v>
+      </c>
+      <c r="F84">
+        <v>244.25</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>243.4</v>
+      </c>
+      <c r="H84">
+        <v>242.63940528743279</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>245.40861992330181</v>
+      </c>
+      <c r="K84">
+        <v>238.14656955985905</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>55.631721164665215</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>3.6500000000000057</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>4.75</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.76842105263158011</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>243.50578592618183</v>
+      </c>
+      <c r="W84">
+        <v>245.62211354542876</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-2.1163276192469311</v>
+      </c>
+      <c r="Y84">
+        <v>-2.1327630525505219</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>245</v>
+      </c>
+      <c r="D85">
+        <v>245</v>
+      </c>
+      <c r="E85">
+        <v>241.05</v>
+      </c>
+      <c r="F85">
+        <v>242.4</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>242.81666666666669</v>
+      </c>
+      <c r="H85">
+        <v>242.72803597704973</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>245.31781549590141</v>
+      </c>
+      <c r="K85">
+        <v>238.79177632433482</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>47.343309406332153</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>1.3499999999999943</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>3.9499999999999886</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.34177215189873372</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>243.33566501446154</v>
+      </c>
+      <c r="W85">
+        <v>245.38343846798961</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-2.0477734535280661</v>
+      </c>
+      <c r="Y85">
+        <v>-2.1157651327460307</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>244.6</v>
+      </c>
+      <c r="D86">
+        <v>246.9</v>
+      </c>
+      <c r="E86">
+        <v>243</v>
+      </c>
+      <c r="F86">
+        <v>245.8</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>245.23333333333335</v>
+      </c>
+      <c r="H86">
+        <v>243.98068465519154</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>245.66941205236776</v>
+      </c>
+      <c r="K86">
+        <v>239.72693714114931</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>60.770353564630661</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>2.8000000000000114</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>3.9000000000000057</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.71794871794871984</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>243.71479347377516</v>
+      </c>
+      <c r="W86">
+        <v>245.41429487776816</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-1.699501403992997</v>
+      </c>
+      <c r="Y86">
+        <v>-2.0325123869954238</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>246.2</v>
+      </c>
+      <c r="D87">
+        <v>253.8</v>
+      </c>
+      <c r="E87">
+        <v>245.15</v>
+      </c>
+      <c r="F87">
+        <v>249</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>249.31666666666669</v>
+      </c>
+      <c r="H87">
+        <v>246.64867566092911</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>247.47620937406381</v>
+      </c>
+      <c r="K87">
+        <v>240.9320622208939</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>69.823135249510386</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>3.8499999999999943</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>8.6500000000000057</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.44508670520231119</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>244.52790217011744</v>
+      </c>
+      <c r="W87">
+        <v>245.67990266460015</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-1.1520004944827065</v>
+      </c>
+      <c r="Y87">
+        <v>-1.8564100084928803</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>251.1</v>
+      </c>
+      <c r="D88">
+        <v>253.45</v>
+      </c>
+      <c r="E88">
+        <v>242.2</v>
+      </c>
+      <c r="F88">
+        <v>243.5</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>246.38333333333333</v>
+      </c>
+      <c r="H88">
+        <v>246.51600449713123</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>248.80371840204964</v>
+      </c>
+      <c r="K88">
+        <v>241.21382617180637</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>46.680034510661109</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>11.25</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.11555555555555656</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>244.36976337471475</v>
+      </c>
+      <c r="W88">
+        <v>245.5184283931483</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-1.1486650184335474</v>
+      </c>
+      <c r="Y88">
+        <v>-1.7148610104810138</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>246.95</v>
+      </c>
+      <c r="D89">
+        <v>256.5</v>
+      </c>
+      <c r="E89">
+        <v>246.8</v>
+      </c>
+      <c r="F89">
+        <v>256</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>253.1</v>
+      </c>
+      <c r="H89">
+        <v>249.80800224856563</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>250.51400320159416</v>
+      </c>
+      <c r="K89">
+        <v>242.45519813362719</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>72.538531978710751</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>9.1999999999999886</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>9.6999999999999886</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.94845360824742264</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V89">
+        <v>246.15903054783556</v>
+      </c>
+      <c r="W89">
+        <v>246.29484110476693</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-0.135810556931375</v>
+      </c>
+      <c r="Y89">
+        <v>-1.3990509197710861</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>253.95</v>
+      </c>
+      <c r="D90">
+        <v>262.39999999999998</v>
+      </c>
+      <c r="E90">
+        <v>253</v>
+      </c>
+      <c r="F90">
+        <v>259.95</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>258.45</v>
+      </c>
+      <c r="H90">
+        <v>254.12900112428281</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>253.15533582346211</v>
+      </c>
+      <c r="K90">
+        <v>244.79848743726561</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>76.953397109031457</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>6.9499999999999886</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>9.3999999999999773</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.73936170212766017</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>248.28071815586085</v>
+      </c>
+      <c r="W90">
+        <v>247.30633435626567</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>0.97438379959518784</v>
+      </c>
+      <c r="Y90">
+        <v>-0.92436397589783126</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>262</v>
+      </c>
+      <c r="D91">
+        <v>263.60000000000002</v>
+      </c>
+      <c r="E91">
+        <v>257.35000000000002</v>
+      </c>
+      <c r="F91">
+        <v>259.05</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>260</v>
+      </c>
+      <c r="H91">
+        <v>257.0645005621414</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>255.47637230713721</v>
+      </c>
+      <c r="K91">
+        <v>247.58771245120658</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>73.584146060881139</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>6.25</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.27199999999999819</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>249.93753074726689</v>
+      </c>
+      <c r="W91">
+        <v>248.1762355150608</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>1.7612952322060949</v>
+      </c>
+      <c r="Y91">
+        <v>-0.38723213427704595</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="D92">
+        <v>262.25</v>
+      </c>
+      <c r="E92">
+        <v>254.65</v>
+      </c>
+      <c r="F92">
+        <v>256.25</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>257.71666666666664</v>
+      </c>
+      <c r="H92">
+        <v>257.39058361440402</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>256.98162290555115</v>
+      </c>
+      <c r="K92">
+        <v>249.1571096842718</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>62.878070233769492</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>7.5999999999999943</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.21052631578947309</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>250.908679863072</v>
+      </c>
+      <c r="W92">
+        <v>248.7742921435748</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>2.1343877194971981</v>
+      </c>
+      <c r="Y92">
+        <v>0.11709183647780286</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>256.85000000000002</v>
+      </c>
+      <c r="D93">
+        <v>268.25</v>
+      </c>
+      <c r="E93">
+        <v>256.7</v>
+      </c>
+      <c r="F93">
+        <v>266.5</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>263.81666666666666</v>
+      </c>
+      <c r="H93">
+        <v>260.60362514053531</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>259.48570670431758</v>
+      </c>
+      <c r="K93">
+        <v>250.83330753221139</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>77.71480527548151</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>9.8000000000000114</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>11.550000000000011</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.84848484848484862</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>253.30734449952246</v>
+      </c>
+      <c r="W93">
+        <v>250.08730754034704</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>3.2200369591754168</v>
+      </c>
+      <c r="Y93">
+        <v>0.73768086101732566</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD93">
+        <f t="shared" si="35"/>
+        <v>258</v>
+      </c>
+      <c r="AE93">
+        <f t="shared" si="36"/>
+        <v>261.10000000000002</v>
+      </c>
+      <c r="AF93">
+        <f t="shared" si="37"/>
+        <v>262.5</v>
+      </c>
+      <c r="AG93">
+        <f t="shared" si="38"/>
+        <v>263.85000000000002</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>269</v>
+      </c>
+      <c r="D94">
+        <v>271</v>
+      </c>
+      <c r="E94">
+        <v>266.60000000000002</v>
+      </c>
+      <c r="F94">
+        <v>267.60000000000002</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>268.40000000000003</v>
+      </c>
+      <c r="H94">
+        <v>264.5018125702677</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>262.04443854780254</v>
+      </c>
+      <c r="K94">
+        <v>254.33701696949777</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>78.848826286402456</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>4.3999999999999773</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.22727272727272846</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>255.506214576519</v>
+      </c>
+      <c r="W94">
+        <v>251.38454401883985</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>4.1216705576791526</v>
+      </c>
+      <c r="Y94">
+        <v>1.4144788003496911</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="D95">
+        <v>273.89999999999998</v>
+      </c>
+      <c r="E95">
+        <v>266.25</v>
+      </c>
+      <c r="F95">
+        <v>266.5</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>268.88333333333333</v>
+      </c>
+      <c r="H95">
+        <v>266.69257295180051</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>264.679007759402</v>
+      </c>
+      <c r="K95">
+        <v>256.98434653183159</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>74.133322012659733</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>7.6499999999999773</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>3.2679738562091602E-2</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>257.19756618013145</v>
+      </c>
+      <c r="W95">
+        <v>252.5042074248517</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>4.6933587552797462</v>
+      </c>
+      <c r="Y95">
+        <v>2.0702547913357021</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>270.25</v>
+      </c>
+      <c r="D96">
+        <v>274.14999999999998</v>
+      </c>
+      <c r="E96">
+        <v>266.60000000000002</v>
+      </c>
+      <c r="F96">
+        <v>271.60000000000002</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>270.78333333333336</v>
+      </c>
+      <c r="H96">
+        <v>268.73795314256694</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>266.7836727017571</v>
+      </c>
+      <c r="K96">
+        <v>259.12115841364681</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>80.791027146354097</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>7.5499999999999545</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.66225165562914301</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>259.41332522934198</v>
+      </c>
+      <c r="W96">
+        <v>253.91871057856639</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>5.4946146507755884</v>
+      </c>
+      <c r="Y96">
+        <v>2.7551267632236796</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>270</v>
+      </c>
+      <c r="D97">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="E97">
+        <v>262.45</v>
+      </c>
+      <c r="F97">
+        <v>263.85000000000002</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>266.39999999999998</v>
+      </c>
+      <c r="H97">
+        <v>267.56897657128343</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>268.14285654581107</v>
+      </c>
+      <c r="K97">
+        <v>259.86090098839196</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>54.262003599012196</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>1.4000000000000341</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>10.449999999999989</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.13397129186603213</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>260.09589057867396</v>
+      </c>
+      <c r="W97">
+        <v>254.65436164682075</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>5.4415289318532132</v>
+      </c>
+      <c r="Y97">
+        <v>3.2924071969495863</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>265</v>
+      </c>
+      <c r="D98">
+        <v>270.75</v>
+      </c>
+      <c r="E98">
+        <v>265</v>
+      </c>
+      <c r="F98">
+        <v>268.05</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>267.93333333333334</v>
+      </c>
+      <c r="H98">
+        <v>267.75115495230841</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>268.72222175785305</v>
+      </c>
+      <c r="K98">
+        <v>261.00292299097151</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>62.584714355939077</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>3.0500000000000114</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>5.75</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.53043478260869759</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>261.31959972041642</v>
+      </c>
+      <c r="W98">
+        <v>255.64663115446365</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>5.6729685659527718</v>
+      </c>
+      <c r="Y98">
+        <v>3.7685194707502232</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>268.85000000000002</v>
+      </c>
+      <c r="D99">
+        <v>268.95</v>
+      </c>
+      <c r="E99">
+        <v>265.05</v>
+      </c>
+      <c r="F99">
+        <v>266.5</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>266.83333333333331</v>
+      </c>
+      <c r="H99">
+        <v>267.29224414282089</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>268.77283914499679</v>
+      </c>
+      <c r="K99">
+        <v>261.90227343742231</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>57.738057680757173</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>3.8999999999999773</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.37179487179487103</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>262.11658437881391</v>
+      </c>
+      <c r="W99">
+        <v>256.45058440228115</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>5.6659999765327598</v>
+      </c>
+      <c r="Y99">
+        <v>4.1480155719067309</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>266.95</v>
+      </c>
+      <c r="D100">
+        <v>267.8</v>
+      </c>
+      <c r="E100">
+        <v>263</v>
+      </c>
+      <c r="F100">
+        <v>263.55</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>264.7833333333333</v>
+      </c>
+      <c r="H100">
+        <v>266.0377887380771</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>268.55665266833086</v>
+      </c>
+      <c r="K100">
+        <v>262.14621267355068</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>48.755536452955511</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0.55000000000001137</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>4.8000000000000114</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.11458333333333542</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>262.33710985899637</v>
+      </c>
+      <c r="W100">
+        <v>256.97646703914921</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>5.3606428198471576</v>
+      </c>
+      <c r="Y100">
+        <v>4.3905410214948164</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>264</v>
+      </c>
+      <c r="D101">
+        <v>269.5</v>
+      </c>
+      <c r="E101">
+        <v>258.3</v>
+      </c>
+      <c r="F101">
+        <v>261</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>262.93333333333334</v>
+      </c>
+      <c r="H101">
+        <v>264.48556103570525</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>268.76628540870178</v>
+      </c>
+      <c r="K101">
+        <v>261.29149874609499</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>41.73922802118399</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>2.6999999999999886</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>11.199999999999989</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.2410714285714278</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>262.13140064992001</v>
+      </c>
+      <c r="W101">
+        <v>257.27450651773074</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>4.856894132189268</v>
+      </c>
+      <c r="Y101">
+        <v>4.4838116436337065</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>260</v>
+      </c>
+      <c r="D102">
+        <v>260.3</v>
+      </c>
+      <c r="E102">
+        <v>252</v>
+      </c>
+      <c r="F102">
+        <v>253.75</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>255.35</v>
+      </c>
+      <c r="H102">
+        <v>259.91778051785263</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>266.88488865121252</v>
+      </c>
+      <c r="K102">
+        <v>259.22672124696277</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>27.615583119896232</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>1.75</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>8.3000000000000114</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.21084337349397561</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>260.84195439608618</v>
+      </c>
+      <c r="W102">
+        <v>257.01343196086179</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>3.8285224352243858</v>
+      </c>
+      <c r="Y102">
+        <v>4.3527538019518426</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>252</v>
+      </c>
+      <c r="D103">
+        <v>252.8</v>
+      </c>
+      <c r="E103">
+        <v>244.4</v>
+      </c>
+      <c r="F103">
+        <v>249.8</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>249</v>
+      </c>
+      <c r="H103">
+        <v>254.45889025892632</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>263.75491339538752</v>
+      </c>
+      <c r="K103">
+        <v>255.93189430319327</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>22.443533210562713</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>8.4000000000000057</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.64285714285714313</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>259.14319218130368</v>
+      </c>
+      <c r="W103">
+        <v>256.47910366746464</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>2.6640885138390331</v>
+      </c>
+      <c r="Y103">
+        <v>4.0150207443292807</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>245</v>
+      </c>
+      <c r="D104">
+        <v>250.4</v>
+      </c>
+      <c r="E104">
+        <v>240</v>
+      </c>
+      <c r="F104">
+        <v>241.65</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>244.01666666666665</v>
+      </c>
+      <c r="H104">
+        <v>249.23777846279648</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>260.78715486307919</v>
+      </c>
+      <c r="K104">
+        <v>252.39147334692811</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>15.133510825012761</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>1.6500000000000057</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>10.400000000000006</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.15865384615384662</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V104">
+        <v>256.45193184571849</v>
+      </c>
+      <c r="W104">
+        <v>255.38065154394874</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>1.0712803017697468</v>
+      </c>
+      <c r="Y104">
+        <v>3.4262726558173737</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD104">
+        <f t="shared" si="35"/>
+        <v>249.20000000000002</v>
+      </c>
+      <c r="AE104">
+        <f t="shared" si="36"/>
+        <v>246.45000000000002</v>
+      </c>
+      <c r="AF104">
+        <f t="shared" si="37"/>
+        <v>245.20000000000002</v>
+      </c>
+      <c r="AG104">
+        <f t="shared" si="38"/>
+        <v>243.95000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>243.3</v>
+      </c>
+      <c r="D105">
+        <v>248.2</v>
+      </c>
+      <c r="E105">
+        <v>241.6</v>
+      </c>
+      <c r="F105">
+        <v>243.95</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>244.58333333333334</v>
+      </c>
+      <c r="H105">
+        <v>246.9105558980649</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>257.99000933795048</v>
+      </c>
+      <c r="K105">
+        <v>249.99336815872186</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>23.879507523532105</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>2.3499999999999943</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>6.5999999999999943</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.35606060606060552</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>254.52855771560795</v>
+      </c>
+      <c r="W105">
+        <v>254.53393661476736</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-5.3788991594103663E-3</v>
+      </c>
+      <c r="Y105">
+        <v>2.7399423448220168</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>242.6</v>
+      </c>
+      <c r="D106">
+        <v>244.75</v>
+      </c>
+      <c r="E106">
+        <v>238.25</v>
+      </c>
+      <c r="F106">
+        <v>241</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>241.33333333333334</v>
+      </c>
+      <c r="H106">
+        <v>244.12194461569914</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>255.04778504062816</v>
+      </c>
+      <c r="K106">
+        <v>247.383730790117</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>20.49346331232784</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>2.75</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>6.5</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>252.44724114397596</v>
+      </c>
+      <c r="W106">
+        <v>253.53142279145126</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-1.0841816474753045</v>
+      </c>
+      <c r="Y106">
+        <v>1.9751175463625525</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>241.8</v>
+      </c>
+      <c r="D107">
+        <v>247</v>
+      </c>
+      <c r="E107">
+        <v>238</v>
+      </c>
+      <c r="F107">
+        <v>245</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>243.33333333333334</v>
+      </c>
+      <c r="H107">
+        <v>243.72763897451625</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>253.25938836493302</v>
+      </c>
+      <c r="K107">
+        <v>245.2984572812021</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>35.899092059322193</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>251.30151173721043</v>
+      </c>
+      <c r="W107">
+        <v>252.89946554764006</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-1.5979538104296296</v>
+      </c>
+      <c r="Y107">
+        <v>1.2605032750041161</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
